--- a/bots/crawl_ch/output/clean_coop_2022-09-17.xlsx
+++ b/bots/crawl_ch/output/clean_coop_2022-09-17.xlsx
@@ -531,153 +531,153 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6430705</t>
+          <t>6793729</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Oecoplan Geschirrspül-Pulver Classic</t>
+          <t>Ajax Badreiniger</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/kueche/tabs-pulver-gel/oecoplan-geschirrspuel-pulver-classic/p/6430705</t>
+          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/badreiniger/ajax-badreiniger/p/6793729</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>750ml</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>6.80</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>6.50/1kg</t>
+          <t>0.91/100ml</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Milliliter</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100ml</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'tabs-pulver-gel']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'badreiniger']</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Oecoplan Geschirrspül-Pulver Classic 6.50 Schweizer Franken</t>
+          <t>Ajax Badreiniger 6.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6793729</t>
+          <t>6430705</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ajax Badreiniger</t>
+          <t>Oecoplan Geschirrspül-Pulver Classic</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/badreiniger/ajax-badreiniger/p/6793729</t>
+          <t>/de/haushalt-tier/reinigung-putzen/kueche/tabs-pulver-gel/oecoplan-geschirrspuel-pulver-classic/p/6430705</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>750ml</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>6.80</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.91/100ml</t>
+          <t>6.50/1kg</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Preis pro 100 Milliliter</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>100ml</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'badreiniger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'tabs-pulver-gel']</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Ajax Badreiniger 6.80 Schweizer Franken</t>
+          <t>Oecoplan Geschirrspül-Pulver Classic 6.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -750,7 +750,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -823,7 +823,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -896,7 +896,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -969,29 +969,29 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4485554</t>
+          <t>6750016</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ajax Parkett Reiniger</t>
+          <t>Clean Abwaschbürste Universal</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/allzweck-glasreiniger/allzweck-bodenreiniger/ajax-parkett-reiniger/p/4485554</t>
+          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/buersten/clean-abwaschbuerste-universal/p/6750016</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1000ml</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -1002,69 +1002,69 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Super Clean</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.60/100ml</t>
+          <t>1.30/1ST</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Preis pro 100 Milliliter</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>100ml</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'allzweck-glasreiniger', 'allzweck-bodenreiniger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'buersten']</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Ajax Parkett Reiniger 5.95 Schweizer Franken</t>
+          <t>Clean Abwaschbürste Universal 1.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6750016</t>
+          <t>4485554</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Clean Abwaschbürste Universal</t>
+          <t>Ajax Parkett Reiniger</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/buersten/clean-abwaschbuerste-universal/p/6750016</t>
+          <t>/de/haushalt-tier/reinigung-putzen/allzweck-glasreiniger/allzweck-bodenreiniger/ajax-parkett-reiniger/p/4485554</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1000ml</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -1075,47 +1075,47 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Super Clean</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.30/1ST</t>
+          <t>0.60/100ml</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Milliliter</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100ml</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'buersten']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'allzweck-glasreiniger', 'allzweck-bodenreiniger']</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Clean Abwaschbürste Universal 1.30 Schweizer Franken</t>
+          <t>Ajax Parkett Reiniger 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -1626,153 +1626,153 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6141062</t>
+          <t>6623229</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Super Clean Handschuhe Latex-Free L, 50 Stück</t>
+          <t>Prix Garantie Glasreiniger</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/handschuhe/super-clean-handschuhe-latex-free-l-50-stueck/p/6141062</t>
+          <t>/de/haushalt-tier/reinigung-putzen/allzweck-glasreiniger/glasreiniger/prix-garantie-glasreiniger/p/6623229</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>50ST</t>
+          <t>1l</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F18" t="n">
         <v>3.5</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Super Clean</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0.16/1ST</t>
+          <t>1.45/1l</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Liter</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1l</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'handschuhe']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'allzweck-glasreiniger', 'glasreiniger']</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Super Clean Handschuhe Latex-Free L, 50 Stück 7.95 Schweizer Franken</t>
+          <t>Prix Garantie Glasreiniger 1.45 Schweizer Franken</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>6623229</t>
+          <t>6141062</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Prix Garantie Glasreiniger</t>
+          <t>Super Clean Handschuhe Latex-Free L, 50 Stück</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/allzweck-glasreiniger/glasreiniger/prix-garantie-glasreiniger/p/6623229</t>
+          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/handschuhe/super-clean-handschuhe-latex-free-l-50-stueck/p/6141062</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1l</t>
+          <t>50ST</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F19" t="n">
         <v>3.5</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Super Clean</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1.45/1l</t>
+          <t>0.16/1ST</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Preis pro 1 Liter</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>1l</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'allzweck-glasreiniger', 'glasreiniger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'handschuhe']</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Prix Garantie Glasreiniger 1.45 Schweizer Franken</t>
+          <t>Super Clean Handschuhe Latex-Free L, 50 Stück 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -2064,372 +2064,372 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6482668</t>
+          <t>6807080</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Oecoplan Parkettreiniger</t>
+          <t>Finish Classic 77</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/allzweck-glasreiniger/allzweck-bodenreiniger/oecoplan-parkettreiniger/p/6482668</t>
+          <t>/de/haushalt-tier/reinigung-putzen/kueche/tabs-pulver-gel/finish-classic-77/p/6807080</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1l</t>
+          <t>77ST</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Finish</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>18.95</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>5.95/1l</t>
+          <t>0.25/1ST</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Preis pro 1 Liter</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>1l</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'allzweck-glasreiniger', 'allzweck-bodenreiniger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'tabs-pulver-gel']</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Oecoplan Parkettreiniger 5.95 Schweizer Franken</t>
+          <t>Finish Classic 77 18.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6807080</t>
+          <t>6482668</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Finish Classic 77</t>
+          <t>Oecoplan Parkettreiniger</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/kueche/tabs-pulver-gel/finish-classic-77/p/6807080</t>
+          <t>/de/haushalt-tier/reinigung-putzen/allzweck-glasreiniger/allzweck-bodenreiniger/oecoplan-parkettreiniger/p/6482668</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>77ST</t>
+          <t>1l</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Finish</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>18.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0.25/1ST</t>
+          <t>5.95/1l</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Liter</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1l</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'tabs-pulver-gel']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'allzweck-glasreiniger', 'allzweck-bodenreiniger']</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Finish Classic 77 18.95 Schweizer Franken</t>
+          <t>Oecoplan Parkettreiniger 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6139199</t>
+          <t>6607263</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Super Clean Cellulose Schwamm soft 2 Stück</t>
+          <t>Prix Garantie Badreiniger</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/schwaemme/super-clean-cellulose-schwamm-soft-2-stueck/p/6139199</t>
+          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/badreiniger/prix-garantie-badreiniger/p/6607263</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>1l</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Super Clean</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1.30/1ST</t>
+          <t>1.40/1l</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Liter</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1l</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'schwaemme']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'badreiniger']</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Super Clean Cellulose Schwamm soft 2 Stück 2.60 Schweizer Franken</t>
+          <t>Prix Garantie Badreiniger 1.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6416725</t>
+          <t>6139199</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Durgol WC effective blue</t>
+          <t>Super Clean Cellulose Schwamm soft 2 Stück</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-reiniger/durgol-wc-effective-blue/p/6416725</t>
+          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/schwaemme/super-clean-cellulose-schwamm-soft-2-stueck/p/6139199</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>750ml</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Durgol</t>
+          <t>Super Clean</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0.66/100ml</t>
+          <t>1.30/1ST</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Preis pro 100 Milliliter</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>100ml</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'wc-reiniger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'schwaemme']</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Durgol WC effective blue 4.95 Schweizer Franken</t>
+          <t>Super Clean Cellulose Schwamm soft 2 Stück 2.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6607263</t>
+          <t>6416725</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Prix Garantie Badreiniger</t>
+          <t>Durgol WC effective blue</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/badreiniger/prix-garantie-badreiniger/p/6607263</t>
+          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-reiniger/durgol-wc-effective-blue/p/6416725</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1l</t>
+          <t>750ml</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F28" t="n">
         <v>4</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Durgol</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1.40/1l</t>
+          <t>0.66/100ml</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Preis pro 1 Liter</t>
+          <t>Preis pro 100 Milliliter</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>1l</t>
+          <t>100ml</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'badreiniger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'wc-reiniger']</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Prix Garantie Badreiniger 1.40 Schweizer Franken</t>
+          <t>Durgol WC effective blue 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -2502,7 +2502,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -2573,123 +2573,123 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6543174</t>
+          <t>4488006</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>WC-Frisch DeLuxe Jasmine</t>
+          <t>Palmolive Orchideen-frisch 3x  500ml</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-einhaenger/wc-frisch-deluxe-jasmine/p/6543174</t>
+          <t>/de/haushalt-tier/reinigung-putzen/kueche/abwaschmittel/palmolive-orchideen-frisch/p/4488006</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>50g</t>
+          <t>3x 500ml</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F31" t="n">
         <v>5</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>WC Frisch</t>
+          <t>Palmolive</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>0.99/10g</t>
+          <t>0.60/100ml</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Preis pro 10 Gramm</t>
+          <t>Preis pro 100 Milliliter</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>10g</t>
+          <t>100ml</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'wc-einhaenger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'abwaschmittel']</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>WC-Frisch DeLuxe Jasmine 4.95 Schweizer Franken</t>
+          <t>Palmolive Orchideen-frisch 3x  500ml 33% Aktion 9.00 Schweizer Franken statt 13.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>4488006</t>
+          <t>6080136</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Palmolive Orchideen-frisch 3x  500ml</t>
+          <t>Cillit Bang Universal Fettlöser</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/kueche/abwaschmittel/palmolive-orchideen-frisch/p/4488006</t>
+          <t>/de/haushalt-tier/reinigung-putzen/kueche/kuechenreiniger/cillit-bang-universal-fettloeser/p/6080136</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3x 500ml</t>
+          <t>880ml</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F32" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Palmolive</t>
+          <t>Cillit</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>0.60/100ml</t>
+          <t>0.79/100ml</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2699,7 +2699,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2709,90 +2709,90 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'abwaschmittel']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'kuechenreiniger']</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Palmolive Orchideen-frisch 3x  500ml 33% Aktion 9.00 Schweizer Franken statt 13.50 Schweizer Franken</t>
+          <t>Cillit Bang Universal Fettlöser 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>6080136</t>
+          <t>6543174</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Cillit Bang Universal Fettlöser</t>
+          <t>WC-Frisch DeLuxe Jasmine</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/kueche/kuechenreiniger/cillit-bang-universal-fettloeser/p/6080136</t>
+          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-einhaenger/wc-frisch-deluxe-jasmine/p/6543174</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>880ml</t>
+          <t>50g</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F33" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Cillit</t>
+          <t>WC Frisch</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0.79/100ml</t>
+          <t>0.99/10g</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Preis pro 100 Milliliter</t>
+          <t>Preis pro 10 Gramm</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>100ml</t>
+          <t>10g</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'kuechenreiniger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'wc-einhaenger']</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Cillit Bang Universal Fettlöser 6.95 Schweizer Franken</t>
+          <t>WC-Frisch DeLuxe Jasmine 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -2938,7 +2938,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -3011,50 +3011,50 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6000336</t>
+          <t>6738696</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Finish Maschinenpfleger</t>
+          <t>Prix Garantie Allzwecktücher Lemon 80 Stück</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/kueche/spuelmaschinen-zusatz/finish-maschinenpfleger/p/6000336</t>
+          <t>/de/haushalt-tier/reinigung-putzen/allzweck-glasreiniger/allzweck-bodenreiniger/prix-garantie-allzwecktuecher-lemon-80-stueck/p/6738696</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>3ST</t>
+          <t>80ST</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Finish</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2.32/1ST</t>
+          <t>0.04/1ST</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3074,60 +3074,60 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'spuelmaschinen-zusatz']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'allzweck-glasreiniger', 'allzweck-bodenreiniger']</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Finish Maschinenpfleger 6.95 Schweizer Franken</t>
+          <t>Prix Garantie Allzwecktücher Lemon 80 Stück 3.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6738696</t>
+          <t>6000336</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Prix Garantie Allzwecktücher Lemon 80 Stück</t>
+          <t>Finish Maschinenpfleger</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/allzweck-glasreiniger/allzweck-bodenreiniger/prix-garantie-allzwecktuecher-lemon-80-stueck/p/6738696</t>
+          <t>/de/haushalt-tier/reinigung-putzen/kueche/spuelmaschinen-zusatz/finish-maschinenpfleger/p/6000336</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>80ST</t>
+          <t>3ST</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Finish</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>0.04/1ST</t>
+          <t>2.32/1ST</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3137,7 +3137,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3147,17 +3147,17 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'allzweck-glasreiniger', 'allzweck-bodenreiniger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'spuelmaschinen-zusatz']</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Prix Garantie Allzwecktücher Lemon 80 Stück 3.00 Schweizer Franken</t>
+          <t>Finish Maschinenpfleger 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -3230,7 +3230,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -3303,7 +3303,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -3376,7 +3376,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -3449,7 +3449,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -3522,7 +3522,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -3595,7 +3595,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3666,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -3739,7 +3739,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -3812,7 +3812,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -3956,7 +3956,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -4027,7 +4027,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -4171,7 +4171,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -4244,36 +4244,36 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3181048</t>
+          <t>6818979</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Oecoplan Putzsprit</t>
+          <t>Prix Garantie Mikrofasertuch fluffy 3 Stück</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/allzweck-glasreiniger/allzweck-bodenreiniger/oecoplan-putzsprit/p/3181048</t>
+          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/lappen/prix-garantie-mikrofasertuch-fluffy-3-stueck/p/6818979</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1000ml</t>
+          <t>3ST</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -4282,132 +4282,132 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>0.55/100ml</t>
+          <t>0.67/1ST</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Preis pro 100 Milliliter</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>100ml</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'allzweck-glasreiniger', 'allzweck-bodenreiniger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'lappen']</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Oecoplan Putzsprit 5.45 Schweizer Franken</t>
+          <t>Prix Garantie Mikrofasertuch fluffy 3 Stück 2.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6818979</t>
+          <t>3625124</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Prix Garantie Mikrofasertuch fluffy 3 Stück</t>
+          <t>Durgol forte</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/lappen/prix-garantie-mikrofasertuch-fluffy-3-stueck/p/6818979</t>
+          <t>/de/haushalt-tier/reinigung-putzen/entkalker-spezialreiniger/entkalker/durgol-forte/p/3625124</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>3ST</t>
+          <t>1000ml</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Durgol</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>0.67/1ST</t>
+          <t>1.00/100ml</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Milliliter</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100ml</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'lappen']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'entkalker-spezialreiniger', 'entkalker']</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Prix Garantie Mikrofasertuch fluffy 3 Stück 2.00 Schweizer Franken</t>
+          <t>Durgol forte 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>3625124</t>
+          <t>3181048</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Durgol forte</t>
+          <t>Oecoplan Putzsprit</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/entkalker-spezialreiniger/entkalker/durgol-forte/p/3625124</t>
+          <t>/de/haushalt-tier/reinigung-putzen/allzweck-glasreiniger/allzweck-bodenreiniger/oecoplan-putzsprit/p/3181048</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -4416,24 +4416,24 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F56" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Durgol</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>1.00/100ml</t>
+          <t>0.55/100ml</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -4443,7 +4443,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4453,17 +4453,17 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'entkalker-spezialreiniger', 'entkalker']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'allzweck-glasreiniger', 'allzweck-bodenreiniger']</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Durgol forte 9.95 Schweizer Franken</t>
+          <t>Oecoplan Putzsprit 5.45 Schweizer Franken</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -4536,7 +4536,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -4609,153 +4609,153 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>3181656</t>
+          <t>5828520</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>WC-Ente Active Clean Marine</t>
+          <t>Held Geschirrspül-Tabs All in 1 25 Stück</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-einhaenger/wc-ente-active-clean-marine/p/3181656</t>
+          <t>/de/haushalt-tier/reinigung-putzen/kueche/tabs-pulver-gel/held-geschirrspuel-tabs-all-in-1-25-stueck/p/5828520</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>40g</t>
+          <t>500g</t>
         </is>
       </c>
       <c r="E59" t="n">
         <v>7</v>
       </c>
       <c r="F59" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>WC-Ente</t>
+          <t>Held</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>7.38/100g</t>
+          <t>0.02/1g</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Gramm</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>7.38</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1g</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'wc-einhaenger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'tabs-pulver-gel']</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>WC-Ente Active Clean Marine 2.95 Schweizer Franken</t>
+          <t>Held Geschirrspül-Tabs All in 1 25 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>5828520</t>
+          <t>3181656</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Held Geschirrspül-Tabs All in 1 25 Stück</t>
+          <t>WC-Ente Active Clean Marine</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/kueche/tabs-pulver-gel/held-geschirrspuel-tabs-all-in-1-25-stueck/p/5828520</t>
+          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-einhaenger/wc-ente-active-clean-marine/p/3181656</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>500g</t>
+          <t>40g</t>
         </is>
       </c>
       <c r="E60" t="n">
         <v>7</v>
       </c>
       <c r="F60" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Held</t>
+          <t>WC-Ente</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>0.02/1g</t>
+          <t>7.38/100g</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Preis pro 1 Gramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>7.38</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>1g</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'tabs-pulver-gel']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'wc-einhaenger']</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Held Geschirrspül-Tabs All in 1 25 Stück 9.95 Schweizer Franken</t>
+          <t>WC-Ente Active Clean Marine 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -4828,7 +4828,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -4901,7 +4901,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -4974,7 +4974,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -5045,7 +5045,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -5118,24 +5118,24 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>3180500</t>
+          <t>6739404</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Reinigungsschwämme Universal</t>
+          <t>Prix Garantie Abwaschbürste 2 Stück</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/schwaemme/reinigungsschwaemme-universal/p/3180500</t>
+          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/buersten/prix-garantie-abwaschbuerste-2-stueck/p/6739404</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -5143,25 +5143,23 @@
           <t>2ST</t>
         </is>
       </c>
-      <c r="E66" t="n">
-        <v>24</v>
-      </c>
+      <c r="E66" t="inlineStr"/>
       <c r="F66" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Scotch-Brite</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2.25/1ST</t>
+          <t>0.70/1ST</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -5171,7 +5169,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -5181,34 +5179,34 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'schwaemme']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'buersten']</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Reinigungsschwämme Universal 4.50 Schweizer Franken</t>
+          <t>Prix Garantie Abwaschbürste 2 Stück 1.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6739404</t>
+          <t>3180500</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Prix Garantie Abwaschbürste 2 Stück</t>
+          <t>Reinigungsschwämme Universal</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/buersten/prix-garantie-abwaschbuerste-2-stueck/p/6739404</t>
+          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/schwaemme/reinigungsschwaemme-universal/p/3180500</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -5216,23 +5214,25 @@
           <t>2ST</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>24</v>
+      </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Scotch-Brite</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>0.70/1ST</t>
+          <t>2.25/1ST</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -5242,7 +5242,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -5252,17 +5252,17 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'buersten']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'schwaemme']</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Prix Garantie Abwaschbürste 2 Stück 1.40 Schweizer Franken</t>
+          <t>Reinigungsschwämme Universal 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -5335,7 +5335,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -5408,7 +5408,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -5481,7 +5481,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -5552,7 +5552,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -5623,7 +5623,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -5696,7 +5696,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -5769,7 +5769,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5840,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -5913,40 +5913,40 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>3525220</t>
+          <t>6543173</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Cif Crème Javel Reiniger</t>
+          <t>WC-Frisch DeLuxe Magnolia</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/allzweck-glasreiniger/allzweck-bodenreiniger/cif-creme-javel-reiniger/p/3525220</t>
+          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-einhaenger/wc-frisch-deluxe-magnolia/p/6543173</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>500ml</t>
+          <t>50g</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F77" t="n">
         <v>5</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Cif</t>
+          <t>WC Frisch</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -5956,12 +5956,12 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>0.99/100ml</t>
+          <t>0.99/10g</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Preis pro 100 Milliliter</t>
+          <t>Preis pro 10 Gramm</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -5971,44 +5971,44 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>100ml</t>
+          <t>10g</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'allzweck-glasreiniger', 'allzweck-bodenreiniger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'wc-einhaenger']</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Cif Crème Javel Reiniger 4.95 Schweizer Franken</t>
+          <t>WC-Frisch DeLuxe Magnolia 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>6823110</t>
+          <t>6858915</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Prix Garantie Schwamm Soft 6 Stück</t>
+          <t>WC Ente Aktiv Gel Floral Moon</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/schwaemme/prix-garantie-schwamm-soft-6-stueck/p/6823110</t>
+          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-reiniger/wc-ente-aktiv-gel-floral-moon/p/6858915</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>6ST</t>
+          <t>750ml</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -6017,88 +6017,90 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>WC-Ente</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>0.15/1ST</t>
+          <t>0.53/100ml</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Milliliter</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100ml</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'schwaemme']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'wc-reiniger']</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Prix Garantie Schwamm Soft 6 Stück 0.90 Schweizer Franken</t>
+          <t>WC Ente Aktiv Gel Floral Moon 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>6858915</t>
+          <t>3525220</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>WC Ente Aktiv Gel Floral Moon</t>
+          <t>Cif Crème Javel Reiniger</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-reiniger/wc-ente-aktiv-gel-floral-moon/p/6858915</t>
+          <t>/de/haushalt-tier/reinigung-putzen/allzweck-glasreiniger/allzweck-bodenreiniger/cif-creme-javel-reiniger/p/3525220</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>750ml</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr"/>
+          <t>500ml</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>11</v>
+      </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>WC-Ente</t>
+          <t>Cif</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>0.53/100ml</t>
+          <t>0.99/100ml</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -6108,7 +6110,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -6118,39 +6120,39 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'wc-reiniger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'allzweck-glasreiniger', 'allzweck-bodenreiniger']</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>WC Ente Aktiv Gel Floral Moon 3.95 Schweizer Franken</t>
+          <t>Cif Crème Javel Reiniger 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6994595</t>
+          <t>6823110</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Sun Classic Active Clean Geschirrspül-Tabs</t>
+          <t>Prix Garantie Schwamm Soft 6 Stück</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/kueche/tabs-pulver-gel/sun-classic-active-clean-geschirrspuel-tabs/p/6994595</t>
+          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/schwaemme/prix-garantie-schwamm-soft-6-stueck/p/6823110</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>100ST</t>
+          <t>6ST</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -6159,17 +6161,17 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Sun</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>27.15</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>0.27/1ST</t>
+          <t>0.15/1ST</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -6179,7 +6181,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -6189,112 +6191,110 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'tabs-pulver-gel']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'schwaemme']</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>Sun Classic Active Clean Geschirrspül-Tabs 27.15 Schweizer Franken</t>
+          <t>Prix Garantie Schwamm Soft 6 Stück 0.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>6543173</t>
+          <t>6994595</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>WC-Frisch DeLuxe Magnolia</t>
+          <t>Sun Classic Active Clean Geschirrspül-Tabs</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-einhaenger/wc-frisch-deluxe-magnolia/p/6543173</t>
+          <t>/de/haushalt-tier/reinigung-putzen/kueche/tabs-pulver-gel/sun-classic-active-clean-geschirrspuel-tabs/p/6994595</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>50g</t>
-        </is>
-      </c>
-      <c r="E81" t="n">
-        <v>6</v>
-      </c>
+          <t>100ST</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
       <c r="F81" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>WC Frisch</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>27.15</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>0.99/10g</t>
+          <t>0.27/1ST</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Preis pro 10 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>10g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'wc-einhaenger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'tabs-pulver-gel']</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>WC-Frisch DeLuxe Magnolia 4.95 Schweizer Franken</t>
+          <t>Sun Classic Active Clean Geschirrspül-Tabs 27.15 Schweizer Franken</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>6775936</t>
+          <t>6862688</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Prix Garantie Glaskeramik Reiniger</t>
+          <t>Oecoplan Spülglanz</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/kueche/kuechenreiniger/prix-garantie-glaskeramik-reiniger/p/6775936</t>
+          <t>/de/haushalt-tier/reinigung-putzen/kueche/spuelmaschinen-zusatz/oecoplan-spuelglanz/p/6862688</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>300ml</t>
+          <t>750ml</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -6308,12 +6308,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>0.83/100ml</t>
+          <t>0.66/100ml</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -6323,7 +6323,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -6333,119 +6333,117 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'kuechenreiniger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'spuelmaschinen-zusatz']</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Prix Garantie Glaskeramik Reiniger 2.50 Schweizer Franken</t>
+          <t>Oecoplan Spülglanz 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>5759536</t>
+          <t>3875529</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Flup Bodentücher XL wet wood 20ST</t>
+          <t>Prix Garantie WC-Einhänger Fresh 3 Stück</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/allzweck-glasreiniger/allzweck-bodenreiniger/flup-bodentuecher-xl-wet-wood-20st/p/5759536</t>
+          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-einhaenger/prix-garantie-wc-einhaenger-fresh-3-stueck/p/3875529</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>20ST</t>
+          <t>165ml</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="F83" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Flup</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>0.30/1ST</t>
+          <t>1.18/100ml</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Milliliter</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100ml</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'allzweck-glasreiniger', 'allzweck-bodenreiniger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'wc-einhaenger']</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>Flup Bodentücher XL wet wood 20ST 5.95 Schweizer Franken</t>
+          <t>Prix Garantie WC-Einhänger Fresh 3 Stück 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>3875529</t>
+          <t>6775936</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Prix Garantie WC-Einhänger Fresh 3 Stück</t>
+          <t>Prix Garantie Glaskeramik Reiniger</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-einhaenger/prix-garantie-wc-einhaenger-fresh-3-stueck/p/3875529</t>
+          <t>/de/haushalt-tier/reinigung-putzen/kueche/kuechenreiniger/prix-garantie-glaskeramik-reiniger/p/6775936</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>165ml</t>
-        </is>
-      </c>
-      <c r="E84" t="n">
-        <v>27</v>
-      </c>
+          <t>300ml</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
       <c r="F84" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -6454,12 +6452,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>1.18/100ml</t>
+          <t>0.83/100ml</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -6469,7 +6467,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -6479,133 +6477,133 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'wc-einhaenger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'kuechenreiniger']</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>Prix Garantie WC-Einhänger Fresh 3 Stück 1.95 Schweizer Franken</t>
+          <t>Prix Garantie Glaskeramik Reiniger 2.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>3453653</t>
+          <t>5759536</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Durgol swiss espresso</t>
+          <t>Flup Bodentücher XL wet wood 20ST</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/entkalker-spezialreiniger/entkalker/durgol-swiss-espresso/p/3453653</t>
+          <t>/de/haushalt-tier/reinigung-putzen/allzweck-glasreiniger/allzweck-bodenreiniger/flup-bodentuecher-xl-wet-wood-20st/p/5759536</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>250ml</t>
+          <t>20ST</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F85" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Durgol</t>
+          <t>Flup</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>3.98/100ml</t>
+          <t>0.30/1ST</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Preis pro 100 Milliliter</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>100ml</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'entkalker-spezialreiniger', 'entkalker']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'allzweck-glasreiniger', 'allzweck-bodenreiniger']</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>Durgol swiss espresso 9.95 Schweizer Franken</t>
+          <t>Flup Bodentücher XL wet wood 20ST 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>4252224</t>
+          <t>3453653</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Cillit Bang Aktiv-schaum 600 ml</t>
+          <t>Durgol swiss espresso</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/badreiniger/cillit-bang-aktiv-schaum-600-ml/p/4252224</t>
+          <t>/de/haushalt-tier/reinigung-putzen/entkalker-spezialreiniger/entkalker/durgol-swiss-espresso/p/3453653</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>600ml</t>
+          <t>250ml</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F86" t="n">
         <v>4.5</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Cillit</t>
+          <t>Durgol</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>1.16/100ml</t>
+          <t>3.98/100ml</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -6615,7 +6613,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -6625,60 +6623,60 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'badreiniger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'entkalker-spezialreiniger', 'entkalker']</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>Cillit Bang Aktiv-schaum 600 ml 6.95 Schweizer Franken</t>
+          <t>Durgol swiss espresso 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>5889553</t>
+          <t>4252224</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Oecoplan Crème Reiniger</t>
+          <t>Cillit Bang Aktiv-schaum 600 ml</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/kueche/kuechenreiniger/oecoplan-creme-reiniger/p/5889553</t>
+          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/badreiniger/cillit-bang-aktiv-schaum-600-ml/p/4252224</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>480ml</t>
+          <t>600ml</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F87" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Cillit</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>0.82/100ml</t>
+          <t>1.16/100ml</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -6688,7 +6686,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -6698,34 +6696,34 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'kuechenreiniger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'badreiniger']</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>Oecoplan Crème Reiniger 3.95 Schweizer Franken</t>
+          <t>Cillit Bang Aktiv-schaum 600 ml 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>6862688</t>
+          <t>4044962</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Oecoplan Spülglanz</t>
+          <t>Palmolive Ultra Limonenfrisch</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/kueche/spuelmaschinen-zusatz/oecoplan-spuelglanz/p/6862688</t>
+          <t>/de/haushalt-tier/reinigung-putzen/kueche/abwaschmittel/palmolive-ultra-limonenfrisch/p/4044962</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -6739,17 +6737,17 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Palmolive</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>0.66/100ml</t>
+          <t>0.60/100ml</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -6759,7 +6757,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -6769,17 +6767,17 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'spuelmaschinen-zusatz']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'abwaschmittel']</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>Oecoplan Spülglanz 4.95 Schweizer Franken</t>
+          <t>Palmolive Ultra Limonenfrisch 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -6852,48 +6850,50 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>4044962</t>
+          <t>5889553</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Palmolive Ultra Limonenfrisch</t>
+          <t>Oecoplan Crème Reiniger</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/kueche/abwaschmittel/palmolive-ultra-limonenfrisch/p/4044962</t>
+          <t>/de/haushalt-tier/reinigung-putzen/kueche/kuechenreiniger/oecoplan-creme-reiniger/p/5889553</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>750ml</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr"/>
+          <t>480ml</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>8</v>
+      </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Palmolive</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>0.60/100ml</t>
+          <t>0.82/100ml</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -6903,7 +6903,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -6913,17 +6913,17 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'abwaschmittel']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'kuechenreiniger']</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>Palmolive Ultra Limonenfrisch 4.50 Schweizer Franken</t>
+          <t>Oecoplan Crème Reiniger 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -6996,7 +6996,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -7069,7 +7069,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -7142,7 +7142,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -7215,36 +7215,34 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>3181889</t>
+          <t>6858916</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>WC-Ente Blue Bloc Intank 2x50g</t>
+          <t>WC Ente Gel Cosmic Peach</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-einhaenger/wc-ente-blue-bloc-intank-2x50g/p/3181889</t>
+          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-reiniger/wc-ente-gel-cosmic-peach/p/6858916</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E95" t="n">
-        <v>10</v>
-      </c>
+          <t>750ml</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -7258,64 +7256,66 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>1.98/1ST</t>
+          <t>0.53/100ml</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Milliliter</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100ml</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'wc-einhaenger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'wc-reiniger']</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>WC-Ente Blue Bloc Intank 2x50g 3.95 Schweizer Franken</t>
+          <t>WC Ente Gel Cosmic Peach 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>6858916</t>
+          <t>3181889</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>WC Ente Gel Cosmic Peach</t>
+          <t>WC-Ente Blue Bloc Intank 2x50g</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-reiniger/wc-ente-gel-cosmic-peach/p/6858916</t>
+          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-einhaenger/wc-ente-blue-bloc-intank-2x50g/p/3181889</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>750ml</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr"/>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>10</v>
+      </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -7329,37 +7329,37 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>0.53/100ml</t>
+          <t>1.98/1ST</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Preis pro 100 Milliliter</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>100ml</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'wc-reiniger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'wc-einhaenger']</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>WC Ente Gel Cosmic Peach 3.95 Schweizer Franken</t>
+          <t>WC-Ente Blue Bloc Intank 2x50g 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -7432,7 +7432,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -7489,7 +7489,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -7562,7 +7562,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -7635,7 +7635,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -7708,7 +7708,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -7779,7 +7779,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -7852,7 +7852,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -7925,153 +7925,153 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>4127442</t>
+          <t>3474581</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>WC-Ente Frische Siegel Limone Refill 2x36ml</t>
+          <t>Swiffer Staubmagnet XXL Set</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-einhaenger/wc-ente-frische-siegel-limone-refill-2x36ml/p/4127442</t>
+          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/staubfaenger/swiffer-staubmagnet-xxl-set/p/3474581</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>72ml</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F105" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>WC-Ente</t>
+          <t>Swiffer</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>13.95</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>11.04/100ml</t>
+          <t>13.95/1ST</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Preis pro 100 Milliliter</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>11.04</t>
+          <t>13.95</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>100ml</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'wc-einhaenger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'staubfaenger']</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>WC-Ente Frische Siegel Limone Refill 2x36ml 7.95 Schweizer Franken</t>
+          <t>Swiffer Staubmagnet XXL Set 13.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>3474581</t>
+          <t>4127442</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Swiffer Staubmagnet XXL Set</t>
+          <t>WC-Ente Frische Siegel Limone Refill 2x36ml</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/staubfaenger/swiffer-staubmagnet-xxl-set/p/3474581</t>
+          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-einhaenger/wc-ente-frische-siegel-limone-refill-2x36ml/p/4127442</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>72ml</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F106" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Swiffer</t>
+          <t>WC-Ente</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>13.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>13.95/1ST</t>
+          <t>11.04/100ml</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Milliliter</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>13.95</t>
+          <t>11.04</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100ml</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'staubfaenger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'wc-einhaenger']</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>Swiffer Staubmagnet XXL Set 13.95 Schweizer Franken</t>
+          <t>WC-Ente Frische Siegel Limone Refill 2x36ml 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -8144,7 +8144,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -8217,7 +8217,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -8290,50 +8290,50 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>6698328</t>
+          <t>4836363</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Prix Garantie WC-Stick Lemon 4 Stück</t>
+          <t>WC Frisch Blau Kraft-Aktiv Chlor 50 g</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-einhaenger/prix-garantie-wc-stick-lemon-4-stueck/p/6698328</t>
+          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-einhaenger/wc-frisch-blau-kraft-aktiv-chlor-50-g/p/4836363</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>160g</t>
+          <t>50g</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F110" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>WC Frisch</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>0.94/100g</t>
+          <t>7.90/100g</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -8343,7 +8343,7 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>7.90</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -8358,12 +8358,12 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>Prix Garantie WC-Stick Lemon 4 Stück 1.50 Schweizer Franken</t>
+          <t>WC Frisch Blau Kraft-Aktiv Chlor 50 g 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -8436,50 +8436,50 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>4836363</t>
+          <t>6698328</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>WC Frisch Blau Kraft-Aktiv Chlor 50 g</t>
+          <t>Prix Garantie WC-Stick Lemon 4 Stück</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-einhaenger/wc-frisch-blau-kraft-aktiv-chlor-50-g/p/4836363</t>
+          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-einhaenger/prix-garantie-wc-stick-lemon-4-stueck/p/6698328</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>50g</t>
+          <t>160g</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>WC Frisch</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>7.90/100g</t>
+          <t>0.94/100g</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -8489,7 +8489,7 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>7.90</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
@@ -8504,12 +8504,12 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>WC Frisch Blau Kraft-Aktiv Chlor 50 g 3.95 Schweizer Franken</t>
+          <t>Prix Garantie WC-Stick Lemon 4 Stück 1.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -8580,7 +8580,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -8653,7 +8653,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -8708,7 +8708,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -8832,7 +8832,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -8905,7 +8905,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -8976,7 +8976,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -9047,32 +9047,36 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>6122086</t>
+          <t>6139406</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Super Clean Topfbürste mit Softgriff, 1 Stück</t>
+          <t>Super Clean Schwamm Glanz, 2 Stück</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/buersten/super-clean-topfbuerste-mit-softgriff-1-stueck/p/6122086</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr"/>
+          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/schwaemme/super-clean-schwamm-glanz-2-stueck/p/6139406</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
       <c r="E121" t="n">
         <v>5</v>
       </c>
       <c r="F121" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -9084,23 +9088,39 @@
           <t>2.95</t>
         </is>
       </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>1.48/1ST</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'buersten']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'schwaemme']</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>Super Clean Topfbürste mit Softgriff, 1 Stück 2.95 Schweizer Franken</t>
+          <t>Super Clean Schwamm Glanz, 2 Stück 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -9171,36 +9191,32 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>6139406</t>
+          <t>6122086</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Super Clean Schwamm Glanz, 2 Stück</t>
+          <t>Super Clean Topfbürste mit Softgriff, 1 Stück</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/schwaemme/super-clean-schwamm-glanz-2-stueck/p/6139406</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/buersten/super-clean-topfbuerste-mit-softgriff-1-stueck/p/6122086</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
       <c r="E123" t="n">
         <v>5</v>
       </c>
       <c r="F123" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -9212,39 +9228,23 @@
           <t>2.95</t>
         </is>
       </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>1.48/1ST</t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'schwaemme']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'buersten']</t>
         </is>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>Super Clean Schwamm Glanz, 2 Stück 2.95 Schweizer Franken</t>
+          <t>Super Clean Topfbürste mit Softgriff, 1 Stück 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -9317,7 +9317,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -9388,7 +9388,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -9461,78 +9461,60 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>6867995</t>
+          <t>4350765</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>WC Frisch Brilliant Gel WC Einhänger Arctic Ocean 2x42g</t>
+          <t>Oecoplan WC-Garnitur komplett</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-einhaenger/wc-frisch-brilliant-gel-wc-einhaenger-arctic-ocean-2x42g/p/6867995</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>84g</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr"/>
+          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/buersten/oecoplan-wc-garnitur-komplett/p/4350765</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="n">
+        <v>5</v>
+      </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>WC Frisch</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>6.60</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>7.86/100g</t>
-        </is>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>Preis pro 100 Gramm</t>
-        </is>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>7.86</t>
-        </is>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>100g</t>
-        </is>
-      </c>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'wc-einhaenger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'buersten']</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>WC Frisch Brilliant Gel WC Einhänger Arctic Ocean 2x42g 33% Aktion 6.60 Schweizer Franken statt 9.90 Schweizer Franken</t>
+          <t>Oecoplan WC-Garnitur komplett 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -9603,82 +9585,100 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>4350765</t>
+          <t>6987171</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Oecoplan WC-Garnitur komplett</t>
+          <t>Somat All-in-1 37 Tabs 2x  37ST</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/buersten/oecoplan-wc-garnitur-komplett/p/4350765</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr"/>
-      <c r="E129" t="n">
-        <v>5</v>
-      </c>
+          <t>/de/haushalt-tier/reinigung-putzen/kueche/tabs-pulver-gel/somat-all-in-1-37-tabs/p/6987171</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2x 37ST</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr"/>
       <c r="F129" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Somat</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+          <t>13.95</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>0.19/1ST</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'buersten']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'tabs-pulver-gel']</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>Oecoplan WC-Garnitur komplett 8.95 Schweizer Franken</t>
+          <t>Somat All-in-1 37 Tabs 2x  37ST 41% Aktion 13.95 Schweizer Franken statt 23.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>6987171</t>
+          <t>6867995</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Somat All-in-1 37 Tabs 2x  37ST</t>
+          <t>WC Frisch Brilliant Gel WC Einhänger Arctic Ocean 2x42g</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/kueche/tabs-pulver-gel/somat-all-in-1-37-tabs/p/6987171</t>
+          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-einhaenger/wc-frisch-brilliant-gel-wc-einhaenger-arctic-ocean-2x42g/p/6867995</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2x 37ST</t>
+          <t>84g</t>
         </is>
       </c>
       <c r="E130" t="inlineStr"/>
@@ -9687,47 +9687,47 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Somat</t>
+          <t>WC Frisch</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>13.95</t>
+          <t>6.60</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>0.19/1ST</t>
+          <t>7.86/100g</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>7.86</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'tabs-pulver-gel']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'wc-einhaenger']</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>Somat All-in-1 37 Tabs 2x  37ST 41% Aktion 13.95 Schweizer Franken statt 23.90 Schweizer Franken</t>
+          <t>WC Frisch Brilliant Gel WC Einhänger Arctic Ocean 2x42g 33% Aktion 6.60 Schweizer Franken statt 9.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -9800,7 +9800,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -9873,7 +9873,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -9946,7 +9946,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -10019,209 +10019,211 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>6419240</t>
+          <t>4927602</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Scotch-Brite Fresh Synthetik</t>
+          <t>Vanish Teppich Powerschaum Gold 650ml</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/schwaemme/scotch-brite-fresh-synthetik/p/6419240</t>
+          <t>/de/haushalt-tier/reinigung-putzen/allzweck-glasreiniger/allzweck-bodenreiniger/vanish-teppich-powerschaum-gold-650ml/p/4927602</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>650ml</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F135" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Scotch-Brite</t>
+          <t>Vanish</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>10.90</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>1.88/1ST</t>
+          <t>1.68/100ml</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Milliliter</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100ml</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'schwaemme']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'allzweck-glasreiniger', 'allzweck-bodenreiniger']</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>Scotch-Brite Fresh Synthetik 3.75 Schweizer Franken</t>
+          <t>Vanish Teppich Powerschaum Gold 650ml 10.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>4927602</t>
+          <t>6419240</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Vanish Teppich Powerschaum Gold 650ml</t>
+          <t>Scotch-Brite Fresh Synthetik</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/allzweck-glasreiniger/allzweck-bodenreiniger/vanish-teppich-powerschaum-gold-650ml/p/4927602</t>
+          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/schwaemme/scotch-brite-fresh-synthetik/p/6419240</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>650ml</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E136" t="n">
+        <v>7</v>
+      </c>
+      <c r="F136" t="n">
         <v>5</v>
       </c>
-      <c r="F136" t="n">
-        <v>4</v>
-      </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Vanish</t>
+          <t>Scotch-Brite</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>10.90</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>1.68/100ml</t>
+          <t>1.88/1ST</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Preis pro 100 Milliliter</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>100ml</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'allzweck-glasreiniger', 'allzweck-bodenreiniger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'schwaemme']</t>
         </is>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>Vanish Teppich Powerschaum Gold 650ml 10.90 Schweizer Franken</t>
+          <t>Scotch-Brite Fresh Synthetik 3.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>6676963</t>
+          <t>6543175</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Wc Stick 3in1 Citrus 2x50g</t>
+          <t>WC-Frisch DeLuxe Moonflower</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-einhaenger/wc-stick-3in1-citrus-2x50g/p/6676963</t>
+          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-einhaenger/wc-frisch-deluxe-moonflower/p/6543175</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>100g</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr"/>
+          <t>50g</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>2</v>
+      </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>WC Frisch</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>2.60/100g</t>
+          <t>0.99/10g</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 10 Gramm</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>10g</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
@@ -10231,85 +10233,83 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>Wc Stick 3in1 Citrus 2x50g 2.60 Schweizer Franken</t>
+          <t>WC-Frisch DeLuxe Moonflower 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>3180071</t>
+          <t>6676963</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Wega Parkett flüssig 1l</t>
+          <t>Wc Stick 3in1 Citrus 2x50g</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/allzweck-glasreiniger/allzweck-bodenreiniger/wega-parkett-fluessig-1l/p/3180071</t>
+          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-einhaenger/wc-stick-3in1-citrus-2x50g/p/6676963</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>1000ml</t>
-        </is>
-      </c>
-      <c r="E138" t="n">
-        <v>13</v>
-      </c>
+          <t>100g</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr"/>
       <c r="F138" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Wega</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>7.40</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>0.74/100ml</t>
+          <t>2.60/100g</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Preis pro 100 Milliliter</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>100ml</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'allzweck-glasreiniger', 'allzweck-bodenreiniger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'wc-einhaenger']</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>Wega Parkett flüssig 1l 7.40 Schweizer Franken</t>
+          <t>Wc Stick 3in1 Citrus 2x50g 2.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -10380,65 +10380,65 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>6543175</t>
+          <t>3355221</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>WC-Frisch DeLuxe Moonflower</t>
+          <t>WC-Ente Aqua Blue Einhänger Original</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-einhaenger/wc-frisch-deluxe-moonflower/p/6543175</t>
+          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-einhaenger/wc-ente-aqua-blue-einhaenger-original/p/3355221</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>50g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F140" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>WC Frisch</t>
+          <t>WC-Ente</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>0.99/10g</t>
+          <t>3.60/1ST</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Preis pro 10 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>10g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
@@ -10448,158 +10448,158 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>WC-Frisch DeLuxe Moonflower 4.95 Schweizer Franken</t>
+          <t>WC-Ente Aqua Blue Einhänger Original 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>3761889</t>
+          <t>3180071</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Rorax Granulat</t>
+          <t>Wega Parkett flüssig 1l</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/entkalker-spezialreiniger/abflussreiniger/rorax-granulat/p/3761889</t>
+          <t>/de/haushalt-tier/reinigung-putzen/allzweck-glasreiniger/allzweck-bodenreiniger/wega-parkett-fluessig-1l/p/3180071</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>600g</t>
+          <t>1000ml</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F141" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Rorax</t>
+          <t>Wega</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>11.95</t>
+          <t>7.40</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>1.99/100g</t>
+          <t>0.74/100ml</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 100 Milliliter</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>100ml</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'entkalker-spezialreiniger', 'abflussreiniger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'allzweck-glasreiniger', 'allzweck-bodenreiniger']</t>
         </is>
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>Rorax Granulat 11.95 Schweizer Franken</t>
+          <t>Wega Parkett flüssig 1l 7.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>3355221</t>
+          <t>3761889</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>WC-Ente Aqua Blue Einhänger Original</t>
+          <t>Rorax Granulat</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-einhaenger/wc-ente-aqua-blue-einhaenger-original/p/3355221</t>
+          <t>/de/haushalt-tier/reinigung-putzen/entkalker-spezialreiniger/abflussreiniger/rorax-granulat/p/3761889</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>600g</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F142" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>WC-Ente</t>
+          <t>Rorax</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>11.95</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>3.60/1ST</t>
+          <t>1.99/100g</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'wc-einhaenger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'entkalker-spezialreiniger', 'abflussreiniger']</t>
         </is>
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>WC-Ente Aqua Blue Einhänger Original 3.60 Schweizer Franken</t>
+          <t>Rorax Granulat 11.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -10670,7 +10670,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -10741,7 +10741,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -10814,7 +10814,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -10887,7 +10887,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -10960,7 +10960,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -11033,7 +11033,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -11104,281 +11104,281 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>6457566</t>
+          <t>6140586</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Einmal-Waschlappen 30 Stück</t>
+          <t>Super Clean Handschuhe Latex-Free mint M, 1 Paar</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/lappen/einmal-waschlappen-30-stueck/p/6457566</t>
+          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/handschuhe/super-clean-handschuhe-latex-free-mint-m-1-paar/p/6140586</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>30ST</t>
+          <t>1PAAR</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F150" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Super Clean</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>9.00/100ST</t>
-        </is>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>Preis pro 100 Stück</t>
-        </is>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>100ST</t>
-        </is>
-      </c>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'lappen']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'handschuhe']</t>
         </is>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>Einmal-Waschlappen 30 Stück 25% ab 2 Aktion 2.70 Schweizer Franken</t>
+          <t>Super Clean Handschuhe Latex-Free mint M, 1 Paar 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>6140586</t>
+          <t>6457566</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Super Clean Handschuhe Latex-Free mint M, 1 Paar</t>
+          <t>Einmal-Waschlappen 30 Stück</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/handschuhe/super-clean-handschuhe-latex-free-mint-m-1-paar/p/6140586</t>
+          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/lappen/einmal-waschlappen-30-stueck/p/6457566</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>1PAAR</t>
+          <t>30ST</t>
         </is>
       </c>
       <c r="E151" t="n">
+        <v>2</v>
+      </c>
+      <c r="F151" t="n">
         <v>5</v>
       </c>
-      <c r="F151" t="n">
-        <v>4</v>
-      </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Super Clean</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>9.00/100ST</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>Preis pro 100 Stück</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>100ST</t>
+        </is>
+      </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'handschuhe']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'lappen']</t>
         </is>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>Super Clean Handschuhe Latex-Free mint M, 1 Paar 5.95 Schweizer Franken</t>
+          <t>Einmal-Waschlappen 30 Stück 25% ab 2 Aktion 2.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>6738699</t>
+          <t>6871531</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Flup Power SiphonAir</t>
+          <t>Chanteclair Fettlöser Marseille 2x750ml</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/entkalker-spezialreiniger/abflussreiniger/flup-power-siphonair/p/6738699</t>
+          <t>/de/haushalt-tier/reinigung-putzen/allzweck-glasreiniger/allzweck-bodenreiniger/chanteclair-fettloeser-marseille-2x750ml/p/6871531</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>250ml</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr"/>
+          <t>1.5l</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>1</v>
+      </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Flup</t>
+          <t>Chanteclair</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>6.40</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>3.58/100ml</t>
+          <t>4.27/1l</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Preis pro 100 Milliliter</t>
+          <t>Preis pro 1 Liter</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>100ml</t>
+          <t>1l</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'entkalker-spezialreiniger', 'abflussreiniger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'allzweck-glasreiniger', 'allzweck-bodenreiniger']</t>
         </is>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>Flup Power SiphonAir 8.95 Schweizer Franken</t>
+          <t>Chanteclair Fettlöser Marseille 2x750ml 6.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>6871531</t>
+          <t>6738699</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Chanteclair Fettlöser Marseille 2x750ml</t>
+          <t>Flup Power SiphonAir</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/allzweck-glasreiniger/allzweck-bodenreiniger/chanteclair-fettloeser-marseille-2x750ml/p/6871531</t>
+          <t>/de/haushalt-tier/reinigung-putzen/entkalker-spezialreiniger/abflussreiniger/flup-power-siphonair/p/6738699</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>1.5l</t>
-        </is>
-      </c>
-      <c r="E153" t="n">
-        <v>1</v>
-      </c>
+          <t>250ml</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr"/>
       <c r="F153" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Chanteclair</t>
+          <t>Flup</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>4.27/1l</t>
+          <t>3.58/100ml</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Preis pro 1 Liter</t>
+          <t>Preis pro 100 Milliliter</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>1l</t>
+          <t>100ml</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'allzweck-glasreiniger', 'allzweck-bodenreiniger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'entkalker-spezialreiniger', 'abflussreiniger']</t>
         </is>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>Chanteclair Fettlöser Marseille 2x750ml 6.40 Schweizer Franken</t>
+          <t>Flup Power SiphonAir 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -11451,7 +11451,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -11504,7 +11504,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -11577,7 +11577,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -11648,121 +11648,121 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>3220605</t>
+          <t>6987178</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>WC-Garnitur Flex weiss</t>
+          <t>Somat Classic Geschirspül Tabs 2x50 Stück 2x  50ST</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/buersten/wc-garnitur-flex-weiss/p/3220605</t>
+          <t>/de/haushalt-tier/reinigung-putzen/kueche/tabs-pulver-gel/somat-classic-geschirspuel-tabs-2x50-stueck/p/6987178</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
+          <t>2x 50ST</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="n">
+        <v>0</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Somat</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>13.95</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>0.14/1ST</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
           <t>1ST</t>
         </is>
       </c>
-      <c r="E158" t="n">
-        <v>5</v>
-      </c>
-      <c r="F158" t="n">
-        <v>4</v>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>Ebnat</t>
-        </is>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>8.95/1ST</t>
-        </is>
-      </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'buersten']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'tabs-pulver-gel']</t>
         </is>
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>WC-Garnitur Flex weiss 8.95 Schweizer Franken</t>
+          <t>Somat Classic Geschirspül Tabs 2x50 Stück 2x  50ST 41% Aktion 13.95 Schweizer Franken statt 23.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>6987178</t>
+          <t>3220605</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Somat Classic Geschirspül Tabs 2x50 Stück 2x  50ST</t>
+          <t>WC-Garnitur Flex weiss</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/kueche/tabs-pulver-gel/somat-classic-geschirspuel-tabs-2x50-stueck/p/6987178</t>
+          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/buersten/wc-garnitur-flex-weiss/p/3220605</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>2x 50ST</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr"/>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>5</v>
+      </c>
       <c r="F159" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Somat</t>
+          <t>Ebnat</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>13.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>0.14/1ST</t>
+          <t>8.95/1ST</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -11772,7 +11772,7 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
@@ -11782,107 +11782,89 @@
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'tabs-pulver-gel']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'buersten']</t>
         </is>
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>Somat Classic Geschirspül Tabs 2x50 Stück 2x  50ST 41% Aktion 13.95 Schweizer Franken statt 23.90 Schweizer Franken</t>
+          <t>WC-Garnitur Flex weiss 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>3181657</t>
+          <t>6987501</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>WC-Ente Active Clean Marine Refill 2x40g</t>
+          <t>Somat Reinigungsgel Gel Zitrone &amp;amp; Limette</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-einhaenger/wc-ente-active-clean-marine-refill-2x40g/p/3181657</t>
+          <t>/de/haushalt-tier/reinigung-putzen/kueche/tabs-pulver-gel/somat-reinigungsgel-gel-zitrone-limette/p/6987501</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E160" t="n">
-        <v>1</v>
-      </c>
+          <t>43WG</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr"/>
       <c r="F160" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>WC-Ente</t>
+          <t>Somat</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>1.80/1ST</t>
-        </is>
-      </c>
-      <c r="J160" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'wc-einhaenger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'tabs-pulver-gel']</t>
         </is>
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>WC-Ente Active Clean Marine Refill 2x40g 3.60 Schweizer Franken</t>
+          <t>Somat Reinigungsgel Gel Zitrone &amp;amp; Limette 11.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>6676966</t>
+          <t>3181657</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>WC Blue Bloc Intank 2x50g</t>
+          <t>WC-Ente Active Clean Marine Refill 2x40g</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-einhaenger/wc-blue-bloc-intank-2x50g/p/6676966</t>
+          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-einhaenger/wc-ente-active-clean-marine-refill-2x40g/p/3181657</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -11890,23 +11872,25 @@
           <t>2ST</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr"/>
+      <c r="E161" t="n">
+        <v>1</v>
+      </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>WC-Ente</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>1.48/1ST</t>
+          <t>1.80/1ST</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -11916,7 +11900,7 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
@@ -11931,34 +11915,34 @@
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>WC Blue Bloc Intank 2x50g 2.95 Schweizer Franken</t>
+          <t>WC-Ente Active Clean Marine Refill 2x40g 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>4127443</t>
+          <t>6676966</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>WC-Ente Frische Siegel Marine Refill 2x36 ml</t>
+          <t>WC Blue Bloc Intank 2x50g</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-einhaenger/wc-ente-frische-siegel-marine-refill-2x36-ml/p/4127443</t>
+          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-einhaenger/wc-blue-bloc-intank-2x50g/p/6676966</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>72ml</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E162" t="inlineStr"/>
@@ -11967,32 +11951,32 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>WC-Ente</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>11.04/100ml</t>
+          <t>1.48/1ST</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Preis pro 100 Milliliter</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>11.04</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>100ml</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
@@ -12002,34 +11986,34 @@
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>WC-Ente Frische Siegel Marine Refill 2x36 ml 7.95 Schweizer Franken</t>
+          <t>WC Blue Bloc Intank 2x50g 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>6662071</t>
+          <t>4127443</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Prix Garantie Handschuhe Grösse L 2 Paar</t>
+          <t>WC-Ente Frische Siegel Marine Refill 2x36 ml</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/handschuhe/prix-garantie-handschuhe-groesse-l-2-paar/p/6662071</t>
+          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-einhaenger/wc-ente-frische-siegel-marine-refill-2x36-ml/p/4127443</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>2PAAR</t>
+          <t>72ml</t>
         </is>
       </c>
       <c r="E163" t="inlineStr"/>
@@ -12038,53 +12022,69 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>WC-Ente</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>11.04/100ml</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>Preis pro 100 Milliliter</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>11.04</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>100ml</t>
+        </is>
+      </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'handschuhe']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'wc-einhaenger']</t>
         </is>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>Prix Garantie Handschuhe Grösse L 2 Paar 1.50 Schweizer Franken</t>
+          <t>WC-Ente Frische Siegel Marine Refill 2x36 ml 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>6987501</t>
+          <t>6662071</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Somat Reinigungsgel Gel Zitrone &amp;amp; Limette</t>
+          <t>Prix Garantie Handschuhe Grösse L 2 Paar</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/kueche/tabs-pulver-gel/somat-reinigungsgel-gel-zitrone-limette/p/6987501</t>
+          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/handschuhe/prix-garantie-handschuhe-groesse-l-2-paar/p/6662071</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>43WG</t>
+          <t>2PAAR</t>
         </is>
       </c>
       <c r="E164" t="inlineStr"/>
@@ -12093,12 +12093,12 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Somat</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>11.95</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="I164" t="inlineStr"/>
@@ -12107,17 +12107,17 @@
       <c r="L164" t="inlineStr"/>
       <c r="M164" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'tabs-pulver-gel']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'handschuhe']</t>
         </is>
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>Somat Reinigungsgel Gel Zitrone &amp;amp; Limette 11.95 Schweizer Franken</t>
+          <t>Prix Garantie Handschuhe Grösse L 2 Paar 1.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -12190,7 +12190,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -12263,7 +12263,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -12334,7 +12334,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -12389,41 +12389,41 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>4171288</t>
+          <t>6126044</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Scotch-Brite® Synthetischer Reinigungsschwamm Soft</t>
+          <t>Super Clean Flaschenputzer L 30mm</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/schwaemme/scotch-brite-synthetischer-reinigungsschwamm-soft/p/4171288</t>
+          <t>/de/haushalt-tier/reinigung-putzen/kueche/kuechenreiniger/super-clean-flaschenputzer-l-30mm/p/6126044</t>
         </is>
       </c>
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F169" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Scotch-Brite</t>
+          <t>Super Clean</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="I169" t="inlineStr"/>
@@ -12432,17 +12432,17 @@
       <c r="L169" t="inlineStr"/>
       <c r="M169" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'schwaemme']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'kuechenreiniger']</t>
         </is>
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>Scotch-Brite® Synthetischer Reinigungsschwamm Soft 2.75 Schweizer Franken</t>
+          <t>Super Clean Flaschenputzer L 30mm 3.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -12513,41 +12513,41 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>6126044</t>
+          <t>4171288</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Super Clean Flaschenputzer L 30mm</t>
+          <t>Scotch-Brite® Synthetischer Reinigungsschwamm Soft</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/kueche/kuechenreiniger/super-clean-flaschenputzer-l-30mm/p/6126044</t>
+          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/schwaemme/scotch-brite-synthetischer-reinigungsschwamm-soft/p/4171288</t>
         </is>
       </c>
       <c r="D171" t="inlineStr"/>
       <c r="E171" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F171" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Super Clean</t>
+          <t>Scotch-Brite</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="I171" t="inlineStr"/>
@@ -12556,17 +12556,17 @@
       <c r="L171" t="inlineStr"/>
       <c r="M171" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'kuechenreiniger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'schwaemme']</t>
         </is>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>Super Clean Flaschenputzer L 30mm 3.50 Schweizer Franken</t>
+          <t>Scotch-Brite® Synthetischer Reinigungsschwamm Soft 2.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -12617,7 +12617,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -12688,7 +12688,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -12759,50 +12759,48 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>6419272</t>
+          <t>6965443</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Scotch-Brite Fresh Synthetik Schwamm sehr stark, 2 Stück</t>
+          <t>Finish Power All-in-1 Citrus 50 Tabs</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/schwaemme/scotch-brite-fresh-synthetik-schwamm-sehr-stark-2-stueck/p/6419272</t>
+          <t>/de/haushalt-tier/reinigung-putzen/kueche/tabs-pulver-gel/finish-power-all-in-1-citrus-50-tabs/p/6965443</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E175" t="n">
-        <v>1</v>
-      </c>
+          <t>50ST</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr"/>
       <c r="F175" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>Scotch-Brite</t>
+          <t>Finish</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>1.88/1ST</t>
+          <t>0.30/1ST</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -12812,7 +12810,7 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
@@ -12822,58 +12820,60 @@
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'schwaemme']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'tabs-pulver-gel']</t>
         </is>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>Scotch-Brite Fresh Synthetik Schwamm sehr stark, 2 Stück 3.75 Schweizer Franken</t>
+          <t>Finish Power All-in-1 Citrus 50 Tabs 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>6965443</t>
+          <t>6419272</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Finish Power All-in-1 Citrus 50 Tabs</t>
+          <t>Scotch-Brite Fresh Synthetik Schwamm sehr stark, 2 Stück</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/kueche/tabs-pulver-gel/finish-power-all-in-1-citrus-50-tabs/p/6965443</t>
+          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/schwaemme/scotch-brite-fresh-synthetik-schwamm-sehr-stark-2-stueck/p/6419272</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>50ST</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr"/>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>1</v>
+      </c>
       <c r="F176" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>Finish</t>
+          <t>Scotch-Brite</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>0.30/1ST</t>
+          <t>1.88/1ST</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -12883,7 +12883,7 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
@@ -12893,17 +12893,17 @@
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'tabs-pulver-gel']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'schwaemme']</t>
         </is>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>Finish Power All-in-1 Citrus 50 Tabs 14.95 Schweizer Franken</t>
+          <t>Scotch-Brite Fresh Synthetik Schwamm sehr stark, 2 Stück 3.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -12960,7 +12960,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -13011,184 +13011,184 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>6120354</t>
+          <t>6539473</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Super Clean Reinigungspad</t>
+          <t>Oecoplan Möbelpflege</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/super-clean-reinigungspad/p/6120354</t>
+          <t>/de/haushalt-tier/reinigung-putzen/entkalker-spezialreiniger/oberflaechen-moebelpflege/oecoplan-moebelpflege/p/6539473</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>4ST</t>
-        </is>
-      </c>
-      <c r="E179" t="n">
-        <v>4</v>
-      </c>
+          <t>250ml</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr"/>
       <c r="F179" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>Super Clean</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>0.65/1ST</t>
+          <t>1.98/100ml</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Milliliter</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100ml</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'entkalker-spezialreiniger', 'oberflaechen-moebelpflege']</t>
         </is>
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>Super Clean Reinigungspad 2.60 Schweizer Franken</t>
+          <t>Oecoplan Möbelpflege - Online kein Bestand 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>6539473</t>
+          <t>4620046</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Oecoplan Möbelpflege</t>
+          <t>WC-Ente WC-Erfrischer Fresh Discs Lavendel Nachfüllpackung 2 Stück</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/entkalker-spezialreiniger/oberflaechen-moebelpflege/oecoplan-moebelpflege/p/6539473</t>
+          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-einhaenger/wc-ente-wc-erfrischer-fresh-discs-lavendel-nachfuellpackung-2-stueck/p/4620046</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>250ml</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr"/>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>8</v>
+      </c>
       <c r="F180" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>WC-Ente</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>1.98/100ml</t>
+          <t>3.98/1ST</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Preis pro 100 Milliliter</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>100ml</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'entkalker-spezialreiniger', 'oberflaechen-moebelpflege']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'wc-einhaenger']</t>
         </is>
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>Oecoplan Möbelpflege - Online kein Bestand 4.95 Schweizer Franken</t>
+          <t>WC-Ente WC-Erfrischer Fresh Discs Lavendel Nachfüllpackung 2 Stück 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>4620046</t>
+          <t>6411638</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>WC-Ente WC-Erfrischer Fresh Discs Lavendel Nachfüllpackung 2 Stück</t>
+          <t>Super Clean Cleaning Block WC green mit Griff, 1 Stück</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-einhaenger/wc-ente-wc-erfrischer-fresh-discs-lavendel-nachfuellpackung-2-stueck/p/4620046</t>
+          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/buersten/super-clean-cleaning-block-wc-green-mit-griff-1-stueck/p/6411638</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F181" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>WC-Ente</t>
+          <t>Super Clean</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -13198,7 +13198,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>3.98/1ST</t>
+          <t>7.95/1ST</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -13208,7 +13208,7 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
@@ -13218,90 +13218,90 @@
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'wc-einhaenger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'buersten']</t>
         </is>
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>WC-Ente WC-Erfrischer Fresh Discs Lavendel Nachfüllpackung 2 Stück 7.95 Schweizer Franken</t>
+          <t>Super Clean Cleaning Block WC green mit Griff, 1 Stück 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>6411638</t>
+          <t>6120354</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Super Clean Cleaning Block WC green mit Griff, 1 Stück</t>
+          <t>Super Clean Reinigungspad</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/buersten/super-clean-cleaning-block-wc-green-mit-griff-1-stueck/p/6411638</t>
+          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/super-clean-reinigungspad/p/6120354</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
+          <t>4ST</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>4</v>
+      </c>
+      <c r="F182" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Super Clean</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>0.65/1ST</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
           <t>1ST</t>
         </is>
       </c>
-      <c r="E182" t="n">
-        <v>2</v>
-      </c>
-      <c r="F182" t="n">
-        <v>5</v>
-      </c>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>Super Clean</t>
-        </is>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>7.95</t>
-        </is>
-      </c>
-      <c r="I182" t="inlineStr">
-        <is>
-          <t>7.95/1ST</t>
-        </is>
-      </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>7.95</t>
-        </is>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'buersten']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten']</t>
         </is>
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>Super Clean Cleaning Block WC green mit Griff, 1 Stück 7.95 Schweizer Franken</t>
+          <t>Super Clean Reinigungspad 2.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -13372,7 +13372,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -13443,7 +13443,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -13500,175 +13500,175 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>3587121</t>
+          <t>5721187</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Coop Entkalkungstablette 4 Stk.</t>
+          <t>Dettol Desinfektionsreiniger</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/entkalker-spezialreiniger/entkalker/coop-entkalkungstablette-4-stk/p/3587121</t>
+          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/badreiniger/dettol-desinfektionsreiniger/p/5721187</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>750ml</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F186" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Dettol</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>1.99/1ST</t>
+          <t>0.66/100ml</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Milliliter</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100ml</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'entkalker-spezialreiniger', 'entkalker']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'badreiniger']</t>
         </is>
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>Coop Entkalkungstablette 4 Stk. 7.95 Schweizer Franken</t>
+          <t>Dettol Desinfektionsreiniger 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>5721187</t>
+          <t>3587121</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Dettol Desinfektionsreiniger</t>
+          <t>Coop Entkalkungstablette 4 Stk.</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/badreiniger/dettol-desinfektionsreiniger/p/5721187</t>
+          <t>/de/haushalt-tier/reinigung-putzen/entkalker-spezialreiniger/entkalker/coop-entkalkungstablette-4-stk/p/3587121</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>750ml</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>Dettol</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>0.66/100ml</t>
+          <t>1.99/1ST</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Preis pro 100 Milliliter</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>100ml</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'badreiniger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'entkalker-spezialreiniger', 'entkalker']</t>
         </is>
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>Dettol Desinfektionsreiniger 4.95 Schweizer Franken</t>
+          <t>Coop Entkalkungstablette 4 Stk. 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>6789301</t>
+          <t>6987503</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Flup Anticalc Express</t>
+          <t>Somat Gold Geschirrspül Tabs Zitrone &amp;amp; Limette 29 Stück 2x  29ST</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/entkalker-spezialreiniger/entkalker/flup-anticalc-express/p/6789301</t>
+          <t>/de/haushalt-tier/reinigung-putzen/kueche/tabs-pulver-gel/somat-gold-geschirrspuel-tabs-zitrone-limette-29-stueck/p/6987503</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>1l</t>
+          <t>2x 29ST</t>
         </is>
       </c>
       <c r="E188" t="inlineStr"/>
@@ -13677,161 +13677,161 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>Flup</t>
+          <t>Somat</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>13.95</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>4.95/1l</t>
+          <t>0.24/1ST</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Preis pro 1 Liter</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>1l</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'entkalker-spezialreiniger', 'entkalker']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'tabs-pulver-gel']</t>
         </is>
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>Flup Anticalc Express 4.95 Schweizer Franken</t>
+          <t>Somat Gold Geschirrspül Tabs Zitrone &amp;amp; Limette 29 Stück 2x  29ST 41% Aktion 13.95 Schweizer Franken statt 23.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>6878046</t>
+          <t>6789301</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>everdrop Universalreiniger Tab</t>
+          <t>Flup Anticalc Express</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/allzweck-glasreiniger/allzweck-bodenreiniger/everdrop-universalreiniger-tab/p/6878046</t>
+          <t>/de/haushalt-tier/reinigung-putzen/entkalker-spezialreiniger/entkalker/flup-anticalc-express/p/6789301</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E189" t="n">
-        <v>1</v>
-      </c>
+          <t>1l</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr"/>
       <c r="F189" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>everdrop</t>
+          <t>Flup</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>2.50/1ST</t>
+          <t>4.95/1l</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Liter</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1l</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'allzweck-glasreiniger', 'allzweck-bodenreiniger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'entkalker-spezialreiniger', 'entkalker']</t>
         </is>
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>everdrop Universalreiniger Tab 2.50 Schweizer Franken</t>
+          <t>Flup Anticalc Express 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>6987503</t>
+          <t>6878046</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Somat Gold Geschirrspül Tabs Zitrone &amp;amp; Limette 29 Stück 2x  29ST</t>
+          <t>everdrop Universalreiniger Tab</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/kueche/tabs-pulver-gel/somat-gold-geschirrspuel-tabs-zitrone-limette-29-stueck/p/6987503</t>
+          <t>/de/haushalt-tier/reinigung-putzen/allzweck-glasreiniger/allzweck-bodenreiniger/everdrop-universalreiniger-tab/p/6878046</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2x 29ST</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr"/>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>1</v>
+      </c>
       <c r="F190" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>Somat</t>
+          <t>everdrop</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>13.95</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>0.24/1ST</t>
+          <t>2.50/1ST</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -13841,7 +13841,7 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
@@ -13851,17 +13851,17 @@
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'tabs-pulver-gel']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'allzweck-glasreiniger', 'allzweck-bodenreiniger']</t>
         </is>
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>Somat Gold Geschirrspül Tabs Zitrone &amp;amp; Limette 29 Stück 2x  29ST 41% Aktion 13.95 Schweizer Franken statt 23.90 Schweizer Franken</t>
+          <t>everdrop Universalreiniger Tab 2.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -13914,7 +13914,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -13967,7 +13967,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -14038,265 +14038,265 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>6878048</t>
+          <t>6871062</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>everdrop Glasreiniger Tab</t>
+          <t>Sun Optimum All-in-1 Active Geschirrspül-Caps Citrus</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/allzweck-glasreiniger/glasreiniger/everdrop-glasreiniger-tab/p/6878048</t>
+          <t>/de/haushalt-tier/reinigung-putzen/kueche/tabs-pulver-gel/sun-optimum-all-in-1-active-geschirrspuel-caps-citrus/p/6871062</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
+          <t>26ST</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="n">
+        <v>0</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>0.58/1ST</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
           <t>1ST</t>
         </is>
       </c>
-      <c r="E194" t="n">
-        <v>3</v>
-      </c>
-      <c r="F194" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G194" t="inlineStr">
-        <is>
-          <t>everdrop</t>
-        </is>
-      </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="I194" t="inlineStr">
-        <is>
-          <t>2.50/1ST</t>
-        </is>
-      </c>
-      <c r="J194" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'allzweck-glasreiniger', 'glasreiniger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'tabs-pulver-gel']</t>
         </is>
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>everdrop Glasreiniger Tab 2.50 Schweizer Franken</t>
+          <t>Sun Optimum All-in-1 Active Geschirrspül-Caps Citrus 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>6871062</t>
+          <t>6710786</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Sun Optimum All-in-1 Active Geschirrspül-Caps Citrus</t>
+          <t>Wega Tapi Mousse</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/kueche/tabs-pulver-gel/sun-optimum-all-in-1-active-geschirrspuel-caps-citrus/p/6871062</t>
+          <t>/de/haushalt-tier/reinigung-putzen/allzweck-glasreiniger/allzweck-bodenreiniger/wega-tapi-mousse/p/6710786</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>26ST</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr"/>
+          <t>500ml</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>2</v>
+      </c>
       <c r="F195" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>Sun</t>
+          <t>Wega</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>7.40</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>0.58/1ST</t>
+          <t>1.48/100ml</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Milliliter</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100ml</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'tabs-pulver-gel']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'allzweck-glasreiniger', 'allzweck-bodenreiniger']</t>
         </is>
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>Sun Optimum All-in-1 Active Geschirrspül-Caps Citrus 14.95 Schweizer Franken</t>
+          <t>Wega Tapi Mousse 7.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>6710786</t>
+          <t>6871063</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Wega Tapi Mousse</t>
+          <t>Sun Maschinenreiniger Tabs</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/allzweck-glasreiniger/allzweck-bodenreiniger/wega-tapi-mousse/p/6710786</t>
+          <t>/de/haushalt-tier/reinigung-putzen/kueche/tabs-pulver-gel/sun-maschinenreiniger-tabs/p/6871063</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>500ml</t>
-        </is>
-      </c>
-      <c r="E196" t="n">
-        <v>2</v>
-      </c>
+          <t>4ST</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr"/>
       <c r="F196" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>Wega</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>7.40</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>1.48/100ml</t>
+          <t>2.24/1ST</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Preis pro 100 Milliliter</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>100ml</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'allzweck-glasreiniger', 'allzweck-bodenreiniger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'tabs-pulver-gel']</t>
         </is>
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>Wega Tapi Mousse 7.40 Schweizer Franken</t>
+          <t>Sun Maschinenreiniger Tabs 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>6871063</t>
+          <t>6878050</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Sun Maschinenreiniger Tabs</t>
+          <t>everdrop Badreiniger Starter Set</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/kueche/tabs-pulver-gel/sun-maschinenreiniger-tabs/p/6871063</t>
+          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/badreiniger/everdrop-badreiniger-starter-set/p/6878050</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>4ST</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr"/>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>4</v>
+      </c>
       <c r="F197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>Sun</t>
+          <t>everdrop</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>2.24/1ST</t>
+          <t>4.95/1ST</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -14306,7 +14306,7 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
@@ -14316,34 +14316,34 @@
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'tabs-pulver-gel']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'badreiniger']</t>
         </is>
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>Sun Maschinenreiniger Tabs 8.95 Schweizer Franken</t>
+          <t>everdrop Badreiniger Starter Set 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>6878050</t>
+          <t>6878048</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>everdrop Badreiniger Starter Set</t>
+          <t>everdrop Glasreiniger Tab</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/badreiniger/everdrop-badreiniger-starter-set/p/6878050</t>
+          <t>/de/haushalt-tier/reinigung-putzen/allzweck-glasreiniger/glasreiniger/everdrop-glasreiniger-tab/p/6878048</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -14352,10 +14352,10 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F198" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -14364,12 +14364,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>4.95/1ST</t>
+          <t>2.50/1ST</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -14379,7 +14379,7 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
@@ -14389,145 +14389,145 @@
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'badreiniger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'allzweck-glasreiniger', 'glasreiniger']</t>
         </is>
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>everdrop Badreiniger Starter Set 4.95 Schweizer Franken</t>
+          <t>everdrop Glasreiniger Tab 2.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>6878049</t>
+          <t>6142351</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>everdrop Universalreiniger Starter</t>
+          <t>Super Clean Handschuhe Universal Einweg FSC S, 10 Stück</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/allzweck-glasreiniger/allzweck-bodenreiniger/everdrop-universalreiniger-starter/p/6878049</t>
+          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/handschuhe/super-clean-handschuhe-universal-einweg-fsc-s-10-stueck/p/6142351</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E199" t="n">
-        <v>3</v>
-      </c>
+          <t>10PAAR</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr"/>
       <c r="F199" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>everdrop</t>
+          <t>Super Clean</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="I199" t="inlineStr">
-        <is>
-          <t>4.95/1ST</t>
-        </is>
-      </c>
-      <c r="J199" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'allzweck-glasreiniger', 'allzweck-bodenreiniger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'handschuhe']</t>
         </is>
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>everdrop Universalreiniger Starter 4.95 Schweizer Franken</t>
+          <t>Super Clean Handschuhe Universal Einweg FSC S, 10 Stück 2.65 Schweizer Franken</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>6142351</t>
+          <t>6878049</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Super Clean Handschuhe Universal Einweg FSC S, 10 Stück</t>
+          <t>everdrop Universalreiniger Starter</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/handschuhe/super-clean-handschuhe-universal-einweg-fsc-s-10-stueck/p/6142351</t>
+          <t>/de/haushalt-tier/reinigung-putzen/allzweck-glasreiniger/allzweck-bodenreiniger/everdrop-universalreiniger-starter/p/6878049</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>10PAAR</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr"/>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>3</v>
+      </c>
       <c r="F200" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>Super Clean</t>
+          <t>everdrop</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>4.95/1ST</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'handschuhe']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'allzweck-glasreiniger', 'allzweck-bodenreiniger']</t>
         </is>
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>Super Clean Handschuhe Universal Einweg FSC S, 10 Stück 2.65 Schweizer Franken</t>
+          <t>everdrop Universalreiniger Starter 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -14600,7 +14600,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -14673,7 +14673,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -14744,7 +14744,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -14815,7 +14815,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -14886,7 +14886,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -14957,7 +14957,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -15010,7 +15010,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -15083,7 +15083,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -15156,7 +15156,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -15229,7 +15229,7 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -15302,29 +15302,29 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>6872627</t>
+          <t>6720763</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Sun All-in-1 Active Clean Geschirrspül-Tabs</t>
+          <t>Mellerud Gold &amp;amp; Silber Glanz Spezialpolitur 75ml</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/kueche/tabs-pulver-gel/sun-all-in-1-active-clean-geschirrspuel-tabs/p/6872627</t>
+          <t>/de/haushalt-tier/reinigung-putzen/entkalker-spezialreiniger/oberflaechen-moebelpflege/mellerud-gold-silber-glanz-spezialpolitur-75ml/p/6720763</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>35ST</t>
+          <t>75ml</t>
         </is>
       </c>
       <c r="E212" t="inlineStr"/>
@@ -15333,69 +15333,69 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>Sun</t>
+          <t>Mellerud</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>11.95</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>0.43/1ST</t>
+          <t>1.59/10ml</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 10 Milliliter</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>10ml</t>
         </is>
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'tabs-pulver-gel']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'entkalker-spezialreiniger', 'oberflaechen-moebelpflege']</t>
         </is>
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>Sun All-in-1 Active Clean Geschirrspül-Tabs 14.95 Schweizer Franken</t>
+          <t>Mellerud Gold &amp;amp; Silber Glanz Spezialpolitur 75ml 11.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>6720763</t>
+          <t>6872627</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Mellerud Gold &amp;amp; Silber Glanz Spezialpolitur 75ml</t>
+          <t>Sun All-in-1 Active Clean Geschirrspül-Tabs</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/entkalker-spezialreiniger/oberflaechen-moebelpflege/mellerud-gold-silber-glanz-spezialpolitur-75ml/p/6720763</t>
+          <t>/de/haushalt-tier/reinigung-putzen/kueche/tabs-pulver-gel/sun-all-in-1-active-clean-geschirrspuel-tabs/p/6872627</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>75ml</t>
+          <t>35ST</t>
         </is>
       </c>
       <c r="E213" t="inlineStr"/>
@@ -15404,47 +15404,47 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>Mellerud</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>11.95</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>1.59/10ml</t>
+          <t>0.43/1ST</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Preis pro 10 Milliliter</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>10ml</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'entkalker-spezialreiniger', 'oberflaechen-moebelpflege']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'tabs-pulver-gel']</t>
         </is>
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>Mellerud Gold &amp;amp; Silber Glanz Spezialpolitur 75ml 11.95 Schweizer Franken</t>
+          <t>Sun All-in-1 Active Clean Geschirrspül-Tabs 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -15517,7 +15517,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -15574,7 +15574,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -15645,7 +15645,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -15702,7 +15702,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -15775,7 +15775,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -15848,7 +15848,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -15905,7 +15905,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -15978,7 +15978,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -16051,7 +16051,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -16124,7 +16124,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -16177,7 +16177,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -16250,7 +16250,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -16301,7 +16301,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -16352,7 +16352,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -16423,7 +16423,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -16494,7 +16494,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -16567,7 +16567,7 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -16640,7 +16640,7 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -16691,29 +16691,29 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>6872629</t>
+          <t>6987295</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Sun Classic Active Clean Geschirrspül-Tabs</t>
+          <t>Somat Excellence 4in1 26 Caps 2x  26ST</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/kueche/tabs-pulver-gel/sun-classic-active-clean-geschirrspuel-tabs/p/6872629</t>
+          <t>/de/haushalt-tier/reinigung-putzen/kueche/tabs-pulver-gel/somat-excellence-4in1-26-caps/p/6987295</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>55ST</t>
+          <t>2x 26ST</t>
         </is>
       </c>
       <c r="E233" t="inlineStr"/>
@@ -16722,12 +16722,12 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>Sun</t>
+          <t>Somat</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>13.95</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -16757,34 +16757,34 @@
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>Sun Classic Active Clean Geschirrspül-Tabs 14.95 Schweizer Franken</t>
+          <t>Somat Excellence 4in1 26 Caps 2x  26ST 41% Aktion 13.95 Schweizer Franken statt 23.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>6720961</t>
+          <t>6872629</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Mellerud Grill &amp;amp; BBQ Reiniger, 460ml</t>
+          <t>Sun Classic Active Clean Geschirrspül-Tabs</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/kueche/kuechenreiniger/mellerud-grill-bbq-reiniger-460ml/p/6720961</t>
+          <t>/de/haushalt-tier/reinigung-putzen/kueche/tabs-pulver-gel/sun-classic-active-clean-geschirrspuel-tabs/p/6872629</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>460ml</t>
+          <t>55ST</t>
         </is>
       </c>
       <c r="E234" t="inlineStr"/>
@@ -16793,161 +16793,161 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>Mellerud</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>11.95</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>2.60/100ml</t>
+          <t>0.27/1ST</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Preis pro 100 Milliliter</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>100ml</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'kuechenreiniger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'tabs-pulver-gel']</t>
         </is>
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>Mellerud Grill &amp;amp; BBQ Reiniger, 460ml 11.95 Schweizer Franken</t>
+          <t>Sun Classic Active Clean Geschirrspül-Tabs 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>3580066</t>
+          <t>6720961</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Leifheit Wischbezug extra soft für Clean Twist Set</t>
+          <t>Mellerud Grill &amp;amp; BBQ Reiniger, 460ml</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/bodenwischer-eimer/leifheit-wischbezug-extra-soft-fuer-clean-twist-set/p/3580066</t>
+          <t>/de/haushalt-tier/reinigung-putzen/kueche/kuechenreiniger/mellerud-grill-bbq-reiniger-460ml/p/6720961</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E235" t="n">
-        <v>1</v>
-      </c>
+          <t>460ml</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr"/>
       <c r="F235" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>Leifheit</t>
+          <t>Mellerud</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>21.95</t>
+          <t>11.95</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>21.95/1ST</t>
+          <t>2.60/100ml</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Milliliter</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>21.95</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100ml</t>
         </is>
       </c>
       <c r="M235" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'bodenwischer-eimer']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'kuechenreiniger']</t>
         </is>
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>Leifheit Wischbezug extra soft für Clean Twist Set 21.95 Schweizer Franken</t>
+          <t>Mellerud Grill &amp;amp; BBQ Reiniger, 460ml 11.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>6987295</t>
+          <t>3580066</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Somat Excellence 4in1 26 Caps 2x  26ST</t>
+          <t>Leifheit Wischbezug extra soft für Clean Twist Set</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/kueche/tabs-pulver-gel/somat-excellence-4in1-26-caps/p/6987295</t>
+          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/bodenwischer-eimer/leifheit-wischbezug-extra-soft-fuer-clean-twist-set/p/3580066</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>2x 26ST</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr"/>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E236" t="n">
+        <v>1</v>
+      </c>
       <c r="F236" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>Somat</t>
+          <t>Leifheit</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>13.95</t>
+          <t>21.95</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>0.27/1ST</t>
+          <t>21.95/1ST</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -16957,7 +16957,7 @@
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>21.95</t>
         </is>
       </c>
       <c r="L236" t="inlineStr">
@@ -16967,17 +16967,17 @@
       </c>
       <c r="M236" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'tabs-pulver-gel']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'bodenwischer-eimer']</t>
         </is>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>Somat Excellence 4in1 26 Caps 2x  26ST 41% Aktion 13.95 Schweizer Franken statt 23.90 Schweizer Franken</t>
+          <t>Leifheit Wischbezug extra soft für Clean Twist Set 21.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -17028,7 +17028,7 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -17099,7 +17099,7 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -17150,7 +17150,7 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -17221,7 +17221,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -17292,7 +17292,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -17363,7 +17363,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -17436,7 +17436,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -17507,7 +17507,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -17558,7 +17558,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -17631,7 +17631,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
@@ -17682,7 +17682,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2022-09-17 07:02:40</t>
+          <t>2022-09-17 20:59:27</t>
         </is>
       </c>
     </row>
